--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>Captive, hostage, lock-in</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +480,7 @@
           <t>Atack, Attack, Throw, threw, pelt, torch, choas, lost control, threatened, death threat</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t>Tyre, Block, tire, burn, Fire, Bricks, Stones, Rubbish, Refuse, Binns, Bins, blokade, blockade, prevented, entrace, road, refuse to, prevent, disrupt, switch off, riot, rioting</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -501,7 +509,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>March AND Memorandum</t>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Memorandum</t>
         </is>
       </c>
     </row>
@@ -519,6 +532,7 @@
           <t>damaged, vandalised, break, broke</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +548,7 @@
           <t xml:space="preserve">Locked, lock-out, lock, sit-in, </t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +564,7 @@
           <t>March, Procession</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -564,6 +580,7 @@
           <t>Meet, meeting</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +596,7 @@
           <t>Picket, posters, placards, speakers, organiser, leader</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -594,6 +612,7 @@
           <t>Demonstrate</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -609,6 +628,7 @@
           <t xml:space="preserve">Gather, Memorandum, group, sing, dance, dancing, toyi, </t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -624,6 +644,7 @@
           <t>vigil</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -639,6 +660,7 @@
           <t>write, petition</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -654,6 +676,7 @@
           <t>boycot, boycott</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Captive, hostage, lock-in</t>
+          <t>['Captive', ' hostage', ' lock-in']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['captive', 'hostage', 'lock-in']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['captive', 'hostage', 'lock-in']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atack, Attack, Throw, threw, pelt, torch, choas, lost control, threatened, death threat</t>
+          <t>['Atack', ' Attack', ' Throw', ' threw', ' pelt', ' torch', ' choas', ' lost control', ' threatened', ' death threat']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['atack', 'attack', 'throw', 'throw', 'pelt', 'torch', 'choas', 'lose', 'control', 'threaten', 'death', 'threat']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['atack', 'attack', 'throw', 'throw', 'pelt', 'torch', 'choas', 'lose', 'control', 'threaten', 'death', 'threat']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tyre, Block, tire, burn, Fire, Bricks, Stones, Rubbish, Refuse, Binns, Bins, blokade, blockade, prevented, entrace, road, refuse to, prevent, disrupt, switch off, riot, rioting</t>
+          <t>['Tyre', ' Block', ' tire', ' burn', ' Fire', ' Bricks', ' Stones', ' Rubbish', ' Refuse', ' Binns', ' Bins', ' blokade', ' blockade', ' prevented', ' entrace', ' road', ' refuse to', ' prevent', ' disrupt', ' switch off', ' riot', ' rioting']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['tyre', 'block', 'tire', 'burn', 'fire', 'brick', 'stone', 'rubbish', 'refuse', 'binns', 'bin', 'blokade', 'blockade', 'prevent', 'entrace', 'road', 'refuse', 'prevent', 'disrupt', 'switch', 'riot', 'rioting']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['tyre', 'block', 'tire', 'burn', 'fire', 'brick', 'stone', 'rubbish', 'refuse', 'binns', 'bin', 'blokade', 'blockade', 'prevent', 'entrace', 'road', 'refuse', 'prevent', 'disrupt', 'switch', 'riot', 'rioting']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,12 +549,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>['March']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Memorandum</t>
+          <t>['Memorandum']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['march']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['march']</t>
         </is>
       </c>
     </row>
@@ -529,10 +579,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>damaged, vandalised, break, broke</t>
+          <t>['damaged', ' vandalised', ' break', ' broke']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['damage', 'vandalised', 'break', 'break']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['damage', 'vandalised', 'break', 'break']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -545,10 +605,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Locked, lock-out, lock, sit-in, </t>
+          <t>['Locked', ' lock-out', ' lock', ' sit-in', ' ']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['lock', 'lock-out', 'lock', 'sit-in']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['lock', 'lock-out', 'lock', 'sit-in']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -561,10 +631,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>March, Procession</t>
+          <t>['March', ' Procession']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['march', 'procession']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['march', 'procession']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -577,10 +657,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Meet, meeting</t>
+          <t>['Meet', ' meeting']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['meet', 'meeting']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['meet', 'meeting']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -593,10 +683,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Picket, posters, placards, speakers, organiser, leader</t>
+          <t>['Picket', ' posters', ' placards', ' speakers', ' organiser', ' leader']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -609,10 +709,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Demonstrate</t>
+          <t>['Demonstrate']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['demonstrate']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['demonstrate']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -625,10 +735,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gather, Memorandum, group, sing, dance, dancing, toyi, </t>
+          <t>['Gather', ' Memorandum', ' group', ' sing', ' dance', ' dancing', ' toyi', ' ']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['gather', 'memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['gather', 'memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -641,10 +761,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>vigil</t>
+          <t>['vigil']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['vigil']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['vigil']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -657,10 +787,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>write, petition</t>
+          <t>['write', ' petition']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['write', 'petition']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['write', 'petition']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -673,10 +813,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>boycot, boycott</t>
+          <t>['boycot', ' boycott']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['boycot', 'boycott']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['boycot', 'boycott']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -480,11 +480,7 @@
           <t>['captive', 'hostage', 'lock-in']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['captive', 'hostage', 'lock-in']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['atack', 'attack', 'throw', 'throw', 'pelt', 'torch', 'choas', 'lose', 'control', 'threaten', 'death', 'threat']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['atack', 'attack', 'throw', 'throw', 'pelt', 'torch', 'choas', 'lose', 'control', 'threaten', 'death', 'threat']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['tyre', 'block', 'tire', 'burn', 'fire', 'brick', 'stone', 'rubbish', 'refuse', 'binns', 'bin', 'blokade', 'blockade', 'prevent', 'entrace', 'road', 'refuse', 'prevent', 'disrupt', 'switch', 'riot', 'rioting']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['tyre', 'block', 'tire', 'burn', 'fire', 'brick', 'stone', 'rubbish', 'refuse', 'binns', 'bin', 'blokade', 'blockade', 'prevent', 'entrace', 'road', 'refuse', 'prevent', 'disrupt', 'switch', 'riot', 'rioting']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,7 +552,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['march']</t>
+          <t>['memorandum']</t>
         </is>
       </c>
     </row>
@@ -588,11 +576,7 @@
           <t>['damage', 'vandalised', 'break', 'break']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['damage', 'vandalised', 'break', 'break']</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -614,11 +598,7 @@
           <t>['lock', 'lock-out', 'lock', 'sit-in']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['lock', 'lock-out', 'lock', 'sit-in']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -640,11 +620,7 @@
           <t>['march', 'procession']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['march', 'procession']</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -666,11 +642,7 @@
           <t>['meet', 'meeting']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['meet', 'meeting']</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -692,11 +664,7 @@
           <t>['picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -718,11 +686,7 @@
           <t>['demonstrate']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['demonstrate']</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -744,11 +708,7 @@
           <t>['gather', 'memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['gather', 'memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -770,11 +730,7 @@
           <t>['vigil']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['vigil']</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -796,11 +752,7 @@
           <t>['write', 'petition']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['write', 'petition']</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -822,11 +774,7 @@
           <t>['boycot', 'boycott']</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['boycot', 'boycott']</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Captive', ' hostage', ' lock-in']</t>
+          <t>['Captive', 'hostage', 'lock-in']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['captive', 'hostage', 'lock-in']</t>
+          <t>['captive,hostage,lock-in']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Atack', ' Attack', ' Throw', ' threw', ' pelt', ' torch', ' choas', ' lost control', ' threatened', ' death threat']</t>
+          <t>['Atack', 'Attack', 'Throw', 'threw', 'pelt', 'torch', 'choas', 'lost control', 'threatened', 'death threat']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['atack', 'attack', 'throw', 'throw', 'pelt', 'torch', 'choas', 'lose', 'control', 'threaten', 'death', 'threat']</t>
+          <t>['atack,attack,throw,threw,pelt,torch,choas,lost', 'control,threatened,death', 'threat']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Tyre', ' Block', ' tire', ' burn', ' Fire', ' Bricks', ' Stones', ' Rubbish', ' Refuse', ' Binns', ' Bins', ' blokade', ' blockade', ' prevented', ' entrace', ' road', ' refuse to', ' prevent', ' disrupt', ' switch off', ' riot', ' rioting']</t>
+          <t>['Tyre', 'Block', 'tire', 'burn', 'Fire', 'Bricks', 'Stones', 'Rubbish', 'Refuse', 'Binns', 'Bins', 'blokade', 'blockade', 'prevented', 'entrace', 'road', 'refuse to', 'prevent', 'disrupt', 'switch off', 'riot', 'rioting']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['tyre', 'block', 'tire', 'burn', 'fire', 'brick', 'stone', 'rubbish', 'refuse', 'binns', 'bin', 'blokade', 'blockade', 'prevent', 'entrace', 'road', 'refuse', 'prevent', 'disrupt', 'switch', 'riot', 'rioting']</t>
+          <t>['tyre,block,tire,burn,fire,bricks,stones,rubbish,refuse,binns,bins,blokade,blockade,prevented,entrace,road,refuse', 'to,prevent,disrupt,switch', 'off,riot,rioting']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -567,13 +567,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['damaged', ' vandalised', ' break', ' broke']</t>
+          <t>['damaged', 'vandalised', 'break', 'broke']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['damage', 'vandalised', 'break', 'break']</t>
+          <t>['damaged,vandalised,break,broke']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -589,13 +589,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Locked', ' lock-out', ' lock', ' sit-in', ' ']</t>
+          <t>['Locked', 'lock-out', 'lock', 'sit-in']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['lock', 'lock-out', 'lock', 'sit-in']</t>
+          <t>['locked,lock-out,lock,sit-in']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -611,13 +611,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['March', ' Procession']</t>
+          <t>['March', 'Procession']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['march', 'procession']</t>
+          <t>['march,procession']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -633,13 +633,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Meet', ' meeting']</t>
+          <t>['Meet', 'meeting']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['meet', 'meeting']</t>
+          <t>['meet,meeting']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -655,13 +655,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Picket', ' posters', ' placards', ' speakers', ' organiser', ' leader']</t>
+          <t>['Picket', 'posters', 'placards', 'speakers', 'organiser', 'leader']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
+          <t>['picket,posters,placards,speakers,organiser,leader']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -699,13 +699,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Gather', ' Memorandum', ' group', ' sing', ' dance', ' dancing', ' toyi', ' ']</t>
+          <t>['Gather', 'Memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['gather', 'memorandum', 'group', 'sing', 'dance', 'dancing', 'toyi']</t>
+          <t>['gather,memorandum,group,sing,dance,dancing,toyi']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -743,13 +743,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['write', ' petition']</t>
+          <t>['write', 'petition']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['write', 'petition']</t>
+          <t>['write,petition']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -765,13 +765,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['boycot', ' boycott']</t>
+          <t>['boycot', 'boycott']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['boycot', 'boycott']</t>
+          <t>['boycot,boycott']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>

--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Captive', 'hostage', 'lock-in']</t>
+          <t>['Captive', 'hostage', 'lock-in', 'abduct']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['captive,hostage,lock-in']</t>
+          <t>['captive,hostage,lock-in,abduct']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -655,13 +655,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Picket', 'posters', 'placards', 'speakers', 'organiser', 'leader']</t>
+          <t>['Picket', 'poster', 'placard', 'speaker', 'organiser', 'leader']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['picket,posters,placards,speakers,organiser,leader']</t>
+          <t>['picket,poster,placard,speaker,organiser,leader']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -677,13 +677,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Demonstrate']</t>
+          <t>['Demonstrate', 'Demonstration']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['demonstrate']</t>
+          <t>['demonstrate,demonstration']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -743,13 +743,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['write', 'petition']</t>
+          <t>['write', 'petition', 'Writter']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['write,petition']</t>
+          <t>['write,petition,writter']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -765,13 +765,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['boycot', 'boycott']</t>
+          <t>['boycot', 'boycott', 'ban']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['boycot,boycott']</t>
+          <t>['boycot,boycott,ban']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>

--- a/DATA/Vocabularies/tactic.xlsx
+++ b/DATA/Vocabularies/tactic.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
